--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847FC72-7791-4431-8278-21DB55B9A30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081CD5B7-DDDF-4880-91AC-74784824A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8D375854-1756-4D75-8C9E-B6E6964978E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8D375854-1756-4D75-8C9E-B6E6964978E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,18 +37,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>institution_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>phone</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+  <si>
+    <t>שם</t>
+  </si>
+  <si>
+    <t>שם מוסד</t>
+  </si>
+  <si>
+    <t>תפקיד</t>
+  </si>
+  <si>
+    <t>מייל</t>
+  </si>
+  <si>
+    <t>פלאפון</t>
+  </si>
+  <si>
+    <t>אביעד מרסיאנו</t>
+  </si>
+  <si>
+    <t>בני דוד עלי- מכינה</t>
+  </si>
+  <si>
+    <t>מלווה</t>
+  </si>
+  <si>
+    <t>aviadvcux@Gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 054-636-8638</t>
+  </si>
+  <si>
+    <t>אבישי בירמן</t>
+  </si>
+  <si>
+    <t>avishay954@gmail.com</t>
+  </si>
+  <si>
+    <t>אודי רוט</t>
+  </si>
+  <si>
+    <t>נוקדים מגן שאול</t>
+  </si>
+  <si>
+    <t>tush01@gmail.com</t>
+  </si>
+  <si>
+    <t>אורי וינברגר</t>
+  </si>
+  <si>
+    <t>בני דוד מעלה אפרים</t>
+  </si>
+  <si>
+    <t>‪oriw18@gmail.com‬‏</t>
+  </si>
+  <si>
+    <t>אורי זגדון</t>
+  </si>
+  <si>
+    <t>בני דוד עלי- ישיבה</t>
+  </si>
+  <si>
+    <t>orizig13@gmail.com</t>
+  </si>
+  <si>
+    <t>אחיה אברמוביץ</t>
+  </si>
+  <si>
+    <t>עצמונה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> achiort@gmail.com</t>
+  </si>
+  <si>
+    <t>איציק אמיתי</t>
+  </si>
+  <si>
+    <t>Morag888@gmail.com</t>
+  </si>
+  <si>
+    <t>054-5644691</t>
+  </si>
+  <si>
+    <t>איתמר בן יאיר</t>
+  </si>
+  <si>
+    <t>יתיר</t>
+  </si>
+  <si>
+    <t>itamarby83@gmail.com‏</t>
+  </si>
+  <si>
+    <t>איתן שלו</t>
+  </si>
+  <si>
+    <t>eitanshalev3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלדד ישעיהו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בני דוד דרך אבות </t>
+  </si>
+  <si>
+    <t>eldad8797@gmail.com</t>
+  </si>
+  <si>
+    <t>אליהו בן ארצי</t>
+  </si>
+  <si>
+    <t>bogrim@otzem.org.il</t>
+  </si>
+  <si>
+    <t>אליעזר בראון</t>
+  </si>
+  <si>
+    <t>רכז</t>
+  </si>
+  <si>
+    <t>Betbaron@gmail.com</t>
+  </si>
+  <si>
+    <t>אליקים אייגן</t>
+  </si>
+  <si>
+    <t>elyakim.aigen@gmail.com</t>
+  </si>
+  <si>
+    <t>אלעד ברכיה</t>
+  </si>
+  <si>
+    <t>eladbr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 054-636-8639</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 054-636-8640</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 054-636-8641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 054-636-8642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 054-636-8643</t>
+  </si>
+  <si>
+    <t>054-5644692</t>
+  </si>
+  <si>
+    <t>054-5644693</t>
+  </si>
+  <si>
+    <t>054-5644694</t>
+  </si>
+  <si>
+    <t>054-5644695</t>
+  </si>
+  <si>
+    <t>054-5644696</t>
+  </si>
+  <si>
+    <t>054-5644697</t>
+  </si>
+  <si>
+    <t>054-5644698</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8638</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8639</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8640</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8643</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8644</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8645</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8646</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8647</t>
+  </si>
+  <si>
+    <t>אלדד ישעיהוa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 052-636-8648</t>
   </si>
 </sst>
 </file>
@@ -57,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +269,12 @@
       <color rgb="FF808080"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -421,18 +620,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFC8662-7E0B-4434-92A1-54144F8BA849}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,37 +645,470 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>549247617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>549247615</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3E6DA7-0CBA-4DD7-98FA-052B4823B430}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>